--- a/テーブル定義書一覧.xlsx
+++ b/テーブル定義書一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjdn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjdn\Desktop\笔记\设计书\ログイン画面詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E82B81-1F13-4213-9EE3-D4B02BE86C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FB13AC-DFF0-45CE-BF91-E7A011F41D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="120" windowWidth="11724" windowHeight="12156" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="288" windowWidth="11724" windowHeight="12156" tabRatio="855" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="107">
   <si>
     <t>説明／備考</t>
   </si>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -622,6 +618,18 @@
   </si>
   <si>
     <t>コードマスタテーブル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2105,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D054D1D-E0C9-4BDE-B029-C0486A5D386A}">
   <dimension ref="A1:BF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2116,7 +2124,7 @@
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" customHeight="1">
       <c r="A1" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -2129,7 +2137,7 @@
       <c r="J1" s="74"/>
       <c r="K1" s="74"/>
       <c r="L1" s="78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" s="78"/>
       <c r="N1" s="78"/>
@@ -2169,7 +2177,7 @@
       <c r="AT1" s="77"/>
       <c r="AU1" s="77"/>
       <c r="AV1" s="82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW1" s="82"/>
       <c r="AX1" s="82"/>
@@ -2195,7 +2203,7 @@
       <c r="J2" s="74"/>
       <c r="K2" s="74"/>
       <c r="L2" s="78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M2" s="78"/>
       <c r="N2" s="78"/>
@@ -2254,7 +2262,7 @@
       </c>
       <c r="B4" s="73"/>
       <c r="C4" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="73"/>
       <c r="E4" s="73"/>
@@ -2265,7 +2273,7 @@
       <c r="J4" s="73"/>
       <c r="K4" s="73"/>
       <c r="L4" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M4" s="73"/>
       <c r="N4" s="73"/>
@@ -2278,7 +2286,7 @@
       <c r="U4" s="73"/>
       <c r="V4" s="73"/>
       <c r="W4" s="73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X4" s="73"/>
       <c r="Y4" s="73"/>
@@ -2286,7 +2294,7 @@
       <c r="AA4" s="73"/>
       <c r="AB4" s="73"/>
       <c r="AC4" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD4" s="93"/>
       <c r="AE4" s="93"/>
@@ -2305,18 +2313,18 @@
       <c r="AR4" s="93"/>
       <c r="AS4" s="94"/>
       <c r="AT4" s="92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AU4" s="93"/>
       <c r="AV4" s="94"/>
       <c r="AW4" s="92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX4" s="93"/>
       <c r="AY4" s="93"/>
       <c r="AZ4" s="94"/>
       <c r="BA4" s="92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BB4" s="93"/>
       <c r="BC4" s="93"/>
@@ -2330,7 +2338,7 @@
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="76"/>
       <c r="E5" s="76"/>
@@ -2341,7 +2349,7 @@
       <c r="J5" s="76"/>
       <c r="K5" s="76"/>
       <c r="L5" s="76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="76"/>
       <c r="N5" s="76"/>
@@ -2354,7 +2362,7 @@
       <c r="U5" s="76"/>
       <c r="V5" s="76"/>
       <c r="W5" s="76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X5" s="76"/>
       <c r="Y5" s="76"/>
@@ -2362,7 +2370,7 @@
       <c r="AA5" s="76"/>
       <c r="AB5" s="76"/>
       <c r="AC5" s="89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD5" s="90"/>
       <c r="AE5" s="90"/>
@@ -2381,7 +2389,7 @@
       <c r="AR5" s="90"/>
       <c r="AS5" s="91"/>
       <c r="AT5" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AU5" s="90"/>
       <c r="AV5" s="91"/>
@@ -2402,7 +2410,7 @@
       </c>
       <c r="B6" s="86"/>
       <c r="C6" s="87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="87"/>
       <c r="E6" s="87"/>
@@ -2413,7 +2421,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="87"/>
       <c r="L6" s="87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M6" s="87"/>
       <c r="N6" s="87"/>
@@ -2426,7 +2434,7 @@
       <c r="U6" s="87"/>
       <c r="V6" s="87"/>
       <c r="W6" s="88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X6" s="88"/>
       <c r="Y6" s="88"/>
@@ -2434,7 +2442,7 @@
       <c r="AA6" s="88"/>
       <c r="AB6" s="88"/>
       <c r="AC6" s="83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD6" s="84"/>
       <c r="AE6" s="84"/>
@@ -2453,7 +2461,7 @@
       <c r="AR6" s="84"/>
       <c r="AS6" s="85"/>
       <c r="AT6" s="83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AU6" s="84"/>
       <c r="AV6" s="85"/>
@@ -2474,7 +2482,7 @@
       </c>
       <c r="B7" s="86"/>
       <c r="C7" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="87"/>
       <c r="E7" s="87"/>
@@ -2485,7 +2493,7 @@
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
       <c r="L7" s="87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M7" s="87"/>
       <c r="N7" s="87"/>
@@ -2498,7 +2506,7 @@
       <c r="U7" s="87"/>
       <c r="V7" s="87"/>
       <c r="W7" s="88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X7" s="88"/>
       <c r="Y7" s="88"/>
@@ -2506,7 +2514,7 @@
       <c r="AA7" s="88"/>
       <c r="AB7" s="88"/>
       <c r="AC7" s="83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD7" s="84"/>
       <c r="AE7" s="84"/>
@@ -2525,7 +2533,7 @@
       <c r="AR7" s="84"/>
       <c r="AS7" s="85"/>
       <c r="AT7" s="83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AU7" s="84"/>
       <c r="AV7" s="85"/>
@@ -2599,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -2782,7 +2790,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="E7" s="37">
         <v>10</v>
@@ -2802,7 +2810,7 @@
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="119"/>
       <c r="N7" s="39"/>
@@ -2814,16 +2822,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E8" s="37">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="F8" s="38">
         <v>0</v>
@@ -2831,16 +2839,12 @@
       <c r="G8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>23</v>
-      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" s="121"/>
       <c r="N8" s="39"/>
@@ -2852,13 +2856,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
@@ -2870,7 +2874,7 @@
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M9" s="105"/>
       <c r="N9" s="39"/>
@@ -2882,13 +2886,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
@@ -2900,7 +2904,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M10" s="105"/>
       <c r="N10" s="39"/>
@@ -2912,13 +2916,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="38"/>
@@ -2928,7 +2932,7 @@
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
       <c r="L11" s="104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M11" s="105"/>
       <c r="N11" s="39"/>
@@ -2940,13 +2944,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>45</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
@@ -2956,7 +2960,7 @@
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" s="105"/>
       <c r="N12" s="39"/>
@@ -3183,7 +3187,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:P4"/>
+      <selection activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3240,14 +3244,14 @@
       <c r="B2" s="95"/>
       <c r="C2" s="16"/>
       <c r="D2" s="100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="100"/>
       <c r="F2" s="100"/>
       <c r="G2" s="100"/>
       <c r="H2" s="101"/>
       <c r="I2" s="102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="100"/>
       <c r="K2" s="101"/>
@@ -3267,7 +3271,7 @@
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="111"/>
       <c r="E3" s="111"/>
@@ -3365,7 +3369,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E7" s="37">
         <v>10</v>
@@ -3383,7 +3387,7 @@
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="119"/>
       <c r="N7" s="39"/>
@@ -3395,13 +3399,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>58</v>
-      </c>
       <c r="D8" s="36" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E8" s="37">
         <v>20</v>
@@ -3413,7 +3417,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M8" s="121"/>
       <c r="N8" s="39"/>
@@ -3425,13 +3429,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="D9" s="36" t="s">
         <v>61</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>62</v>
       </c>
       <c r="E9" s="37">
         <v>3</v>
@@ -3455,13 +3459,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E10" s="37">
         <v>80</v>
@@ -3483,13 +3487,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>65</v>
-      </c>
       <c r="D11" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="37">
         <v>11</v>
@@ -3513,13 +3517,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
@@ -3529,7 +3533,7 @@
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" s="105"/>
       <c r="N12" s="39"/>
@@ -3541,13 +3545,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
@@ -3557,7 +3561,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13" s="105"/>
       <c r="N13" s="39"/>
@@ -3785,7 +3789,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3842,14 +3846,14 @@
       <c r="B2" s="95"/>
       <c r="C2" s="16"/>
       <c r="D2" s="100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="100"/>
       <c r="F2" s="100"/>
       <c r="G2" s="100"/>
       <c r="H2" s="101"/>
       <c r="I2" s="102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="100"/>
       <c r="K2" s="101"/>
@@ -3869,7 +3873,7 @@
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="111"/>
       <c r="E3" s="111"/>
@@ -3961,13 +3965,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="37">
         <v>5</v>
@@ -3997,13 +4001,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>61</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>62</v>
       </c>
       <c r="E8" s="37">
         <v>3</v>
@@ -4033,13 +4037,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E9" s="37">
         <v>10</v>
@@ -4300,16 +4304,16 @@
     </row>
     <row r="24" spans="1:16" ht="28.5" customHeight="1">
       <c r="A24" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="C24" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="54" t="s">
-        <v>77</v>
-      </c>
       <c r="D24" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="28.5" customHeight="1">
@@ -4321,7 +4325,7 @@
         <v>300</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="28.5" customHeight="1">
@@ -4331,7 +4335,7 @@
         <v>301</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="28.5" customHeight="1">
@@ -4341,7 +4345,7 @@
         <v>302</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="28.5" customHeight="1">
@@ -4351,7 +4355,7 @@
         <v>303</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
